--- a/biology/Zoologie/Crenella/Crenella.xlsx
+++ b/biology/Zoologie/Crenella/Crenella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crenella est un genre de mollusques bivalves, de l'ordre des Mytiloida et de la famille des Mytilidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (19 octobre 2019)[2]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (19 octobre 2019):
 Crenella arenaria Monterosato, 1875 ex H. Martin, ms.
 Crenella caudiva Olsson, 1961
 Crenella decussata (Montagu, 1808)
@@ -527,17 +541,17 @@
 Crenella pellucida (Jeffreys, 1859)
 Crenella pura E. A. Smith, 1890
 Crenella skomma (McLean &amp; Schwengel, 1944)
-Selon Paleobiology Database                   (19 octobre 2019)[3] :
+Selon Paleobiology Database                   (19 octobre 2019) :
 Crenella decussata - Crenella elegantula - Crenella elliptica - Crenella fenestra - Crenella glandula - Crenella gubernatoria - Crenella inflata - Crenella kannoi - Crenella latifrons - Crenella maylandensis - Crenella porterensis - Crenella santana - Crenella serica - Crenella striatocostata - Crenella subfornicata - Crenella virida - Crenella washingtonensis
 Autres espèces fossiles:
 †Crenella anterodivaricata Eames, 1951
-†Crenella cucullata Deshayes[4], 1861 - Lutétien (Éocène, ère cénozoïque) - environs de Paris
+†Crenella cucullata Deshayes, 1861 - Lutétien (Éocène, ère cénozoïque) - environs de Paris
 †Crenella cymbiola Vincent, 1930
 †Crenella depontaillieri Cossmann &amp; Lambert, 1884
-†Crenella elegans Deshayes, 1861[4] - Lutétien (Éocène, ère cénozoïque) - environs de Paris
+†Crenella elegans Deshayes, 1861 - Lutétien (Éocène, ère cénozoïque) - environs de Paris
 †Crenella humilis Vincent, 1930
 †Crenella scrobiculata von Koenen, 1883
-†Crenella striatina Deshayes, 1861[4] - Lutétien (Éocène, ère cénozoïque) - environs de Paris
+†Crenella striatina Deshayes, 1861 - Lutétien (Éocène, ère cénozoïque) - environs de Paris
 †Crenella striatocostata Nagao, 1928</t>
         </is>
       </c>
